--- a/medicine/Handicap/Yedinci_Koğuştaki_Mucize/Yedinci_Koğuştaki_Mucize.xlsx
+++ b/medicine/Handicap/Yedinci_Koğuştaki_Mucize/Yedinci_Koğuştaki_Mucize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yedinci_Ko%C4%9Fu%C5%9Ftaki_Mucize</t>
+          <t>Yedinci_Koğuştaki_Mucize</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yedinci Koğuştaki Mucize ou Cellule numéro 7, est un film dramatique turc réalisé par Mehmet Ada Öztekin (tr), sorti en 2019. C’est un remake du film sud-coréen Miracle in Cell No. 7.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yedinci_Ko%C4%9Fu%C5%9Ftaki_Mucize</t>
+          <t>Yedinci_Koğuştaki_Mucize</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Memo, un berger souffrant d'un handicap mental, vit avec sa fille et sa mère dans un village de la côte égéenne turque au début des années 1980, pendant la période du coup d’État. Un beau jour, en 1983, la vie de Memo se voit subitement bouleversée quand la fille du commandant, un haut responsable durant la loi martiale meurt. Memo est accusé à tort du meurtre et est condamné à mort. Il se retrouve en prison dans la cellule numéro sept. Il est peu probable qu'il y survive mais alors que tous ceux qui peuplent la cellule sept l'avaient d'abord accueilli avec haine, ils commencent progressivement à être convaincus de son innocence en témoignant de son grand cœur. Avec le temps, tous ceux que Memo touche se mobilisent pour lui sauver la vie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yedinci_Ko%C4%9Fu%C5%9Ftaki_Mucize</t>
+          <t>Yedinci_Koğuştaki_Mucize</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Yedinci Koğuştaki Mucize
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yedinci_Ko%C4%9Fu%C5%9Ftaki_Mucize</t>
+          <t>Yedinci_Koğuştaki_Mucize</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aras Bulut İynemli : Memo
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yedinci_Ko%C4%9Fu%C5%9Ftaki_Mucize</t>
+          <t>Yedinci_Koğuştaki_Mucize</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,9 +649,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en Turquie, précisément à Muğla et à Beykoz (district d'Istanbul)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Turquie, précisément à Muğla et à Beykoz (district d'Istanbul).
 </t>
         </is>
       </c>
